--- a/v1/excel/template.xlsx
+++ b/v1/excel/template.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Проводки в формате: "{Дебет} {Кредит} {Сумма}"</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>Начальный баланс в формате: "{Счет} {Сумма}"</t>
+  </si>
+  <si>
+    <t>71 222</t>
   </si>
   <si>
     <t>71 999</t>
@@ -358,10 +361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -388,10 +391,15 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
